--- a/Photos/20210218 - Triangles with triangles/scar trii 2/Measurements_3.xlsx
+++ b/Photos/20210218 - Triangles with triangles/scar trii 2/Measurements_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caballrm/Dropbox/Self-Replicating-Gear/Photos/20210218 - Triangles with triangles/scar trii 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3425FA-D4D8-8F43-9A7C-336230FB4AE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2915BFBD-15E3-9E4B-B7FE-2279E062220E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="23040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7274,7 +7274,7 @@
   <dimension ref="A1:U80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AP19" sqref="AP19"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
